--- a/cars/hardware/electronics/bom.xlsx
+++ b/cars/hardware/electronics/bom.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\PDG-RocketLeagueIRL\cars\hardware\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\PDG-RocketLeagueIRL\cars\hardware\electronics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DFF46B4-7426-435B-8E13-2E74CD1C46C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B3E9DC-919D-4D61-9796-BAEAB8667234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-90" windowWidth="29040" windowHeight="15720" xr2:uid="{82A06797-0146-4591-A099-0D4B3F00A592}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{82A06797-0146-4591-A099-0D4B3F00A592}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -51,16 +51,7 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Moteur DC</t>
-  </si>
-  <si>
-    <t>Tension nominale : 3.7V Courant nominale : 50mA Vitesse nominale : 28krpm</t>
-  </si>
-  <si>
     <t>Digikey</t>
-  </si>
-  <si>
-    <t>JYD061217 JIE YI ELECTRONICS LIMITED | Moteurs, solénoïdes, modules/cartes de variateur | DigiKey</t>
   </si>
   <si>
     <t>Module ESP32 + caméra intégré</t>
@@ -112,6 +103,15 @@
   </si>
   <si>
     <t>Référence Fournisseur</t>
+  </si>
+  <si>
+    <t>Moteur GA12-N20 DC 3V</t>
+  </si>
+  <si>
+    <t>https://www.amazon.fr/-/en/gp/product/B0CJY5QH7W?ref=ppx_pt2_dt_b_prod_image&amp;th=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tension nominale : 3V           Courant nominale : 70mA   Couple nomiale : 2kg*cm   Vitesse à vide : 100 RPM </t>
   </si>
 </sst>
 </file>
@@ -483,12 +483,12 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.28515625" customWidth="1"/>
@@ -506,10 +506,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -518,21 +518,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B2">
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="F2">
         <v>1.88</v>
@@ -544,19 +544,19 @@
     </row>
     <row r="3" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F3">
         <v>30.9</v>
@@ -568,19 +568,19 @@
     </row>
     <row r="4" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F4">
         <v>12.9</v>
@@ -592,19 +592,19 @@
     </row>
     <row r="5" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F5">
         <v>12.9</v>
@@ -616,19 +616,19 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F6">
         <v>7.9</v>
@@ -650,7 +650,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" display="https://www.digitec.ch/fr/s1/product/seeed-studio-xiao-esp32-s3-sense-avec-camera-carte-de-developpement-kit-35506126" xr:uid="{2D67246F-3494-47D9-86BA-5C16BB5E9743}"/>
-    <hyperlink ref="E2" r:id="rId2" display="https://www.digikey.ch/fr/products/detail/jie-yi-electronics-limited/JYD061217/20193252?gclsrc=aw.ds&amp;&amp;utm_adgroup=&amp;utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=PMax%20Shopping_Product_Medium%20ROAS&amp;utm_term=&amp;productid=20193252&amp;utm_content=&amp;utm_id=go_cmp-20185743540_adg-_ad-__dev-c_ext-_prd-20193252_sig-CjwKCAjw7fzDBhA7EiwAOqJkhw_h5E2LG43JgkahDbaqCsuiNOicS2W8PJ3Qa1gc9sztA9-IhOcexhoCLOsQAvD_BwE&amp;gad_source=1&amp;gad_campaignid=20185745493&amp;gclid=CjwKCAjw7fzDBhA7EiwAOqJkhw_h5E2LG43JgkahDbaqCsuiNOicS2W8PJ3Qa1gc9sztA9-IhOcexhoCLOsQAvD_BwE" xr:uid="{AB33CABF-9A07-47A7-B41C-27FCFBC870B6}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{AB33CABF-9A07-47A7-B41C-27FCFBC870B6}"/>
     <hyperlink ref="E4" r:id="rId3" display="https://www.digitec.ch/fr/s1/product/adafruit-drv8833-tableau-daffichage-pour-les-conducteurs-de-moteurs-pas-a-pas-diode-5998725?supplier=406802&amp;utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=PROD_CH_PMAX_M10_C1&amp;campaignid=21034944845&amp;adgroupid=&amp;adid=&amp;dgCidg=CjwKCAjw7fzDBhA7EiwAOqJkh1FCTY1Xj24ZRVf6wRg9dd3Hmojap9E1dGXTD5nys5zJO2vk2LjBNRoCCW4QAvD_BwE&amp;gclsrc=aw.ds&amp;gad_source=1&amp;gad_campaignid=21038325766&amp;gclid=CjwKCAjw7fzDBhA7EiwAOqJkh1FCTY1Xj24ZRVf6wRg9dd3Hmojap9E1dGXTD5nys5zJO2vk2LjBNRoCCW4QAvD_BwE" xr:uid="{2951186B-611D-4B6E-A06C-CA750D9ECD32}"/>
     <hyperlink ref="E6" r:id="rId4" display="https://www.digitec.ch/fr/s1/product/akyga-lp803040-akkupack-x-spezial-akku-lipo-37-v-1000-mah-370-v-1000-mah-batterie-rc-56400957" xr:uid="{BBCE258D-873B-400C-8B6A-6825CD750322}"/>
     <hyperlink ref="E5" r:id="rId5" xr:uid="{03BE1726-D23A-4479-A588-B9D1C537EE87}"/>
@@ -661,9 +661,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -805,19 +808,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{993FDD0E-643E-458C-8214-DA0C78CEDE23}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2C5ED9F-3DB0-465D-A28D-7E2381ACE479}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -841,9 +840,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2C5ED9F-3DB0-465D-A28D-7E2381ACE479}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{993FDD0E-643E-458C-8214-DA0C78CEDE23}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>